--- a/Jogos_do_Dia/2023-07-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t>League</t>
   </si>
@@ -130,39 +130,42 @@
     <t>Chile Primera División</t>
   </si>
   <si>
+    <t>Norway Eliteserien</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Norway Eliteserien</t>
+    <t>Uruguay Primera División</t>
   </si>
   <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Uruguay Primera División</t>
-  </si>
-  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
+    <t>Brazil Serie A</t>
+  </si>
+  <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
-    <t>Brazil Serie A</t>
-  </si>
-  <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
-    <t>Peru Primera División</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
+    <t>Mexico Liga MX</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -193,69 +196,78 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>Jeonnam Dragons</t>
+  </si>
+  <si>
     <t>Cheongju</t>
   </si>
   <si>
-    <t>Jeonnam Dragons</t>
+    <t>Changchun Yatai</t>
+  </si>
+  <si>
+    <t>Chengdu Better City FC</t>
+  </si>
+  <si>
+    <t>Shandong Luneng</t>
   </si>
   <si>
     <t>Shenzhen</t>
   </si>
   <si>
-    <t>Changchun Yatai</t>
-  </si>
-  <si>
-    <t>Chengdu Better City FC</t>
-  </si>
-  <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
     <t>Huachipato</t>
   </si>
   <si>
+    <t>Stabæk</t>
+  </si>
+  <si>
     <t>Mjällby</t>
   </si>
   <si>
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Stabæk</t>
+    <t>Liverpool FC Montevideo</t>
   </si>
   <si>
     <t>Deportivo Riestra</t>
   </si>
   <si>
-    <t>Liverpool FC Montevideo</t>
-  </si>
-  <si>
     <t>Mirassol</t>
   </si>
   <si>
     <t>Peñarol</t>
   </si>
   <si>
+    <t>Newell's Old Boys</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>César Vallejo</t>
+  </si>
+  <si>
+    <t>Campinense</t>
+  </si>
+  <si>
+    <t>Náutico</t>
+  </si>
+  <si>
     <t>EC São José</t>
   </si>
   <si>
-    <t>Newell's Old Boys</t>
-  </si>
-  <si>
-    <t>Goiás</t>
-  </si>
-  <si>
-    <t>Náutico</t>
-  </si>
-  <si>
-    <t>Campinense</t>
-  </si>
-  <si>
     <t>Atlanta</t>
   </si>
   <si>
-    <t>César Vallejo</t>
-  </si>
-  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
@@ -265,69 +277,78 @@
     <t>Democrata GV</t>
   </si>
   <si>
+    <t>All Boys</t>
+  </si>
+  <si>
+    <t>Universitario</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>Seoul E-Land</t>
+  </si>
+  <si>
     <t>Seongnam</t>
   </si>
   <si>
-    <t>Seoul E-Land</t>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
+    <t>Beijing Guoan</t>
+  </si>
+  <si>
+    <t>Shanghai SIPG</t>
   </si>
   <si>
     <t>Wuhan Three Towns</t>
   </si>
   <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
-    <t>Beijing Guoan</t>
-  </si>
-  <si>
-    <t>Shanghai SIPG</t>
-  </si>
-  <si>
     <t>Magallanes</t>
   </si>
   <si>
+    <t>Strømsgodset</t>
+  </si>
+  <si>
     <t>Kalmar</t>
   </si>
   <si>
     <t>Hammarby</t>
   </si>
   <si>
-    <t>Strømsgodset</t>
+    <t>Deportivo Maldonado</t>
   </si>
   <si>
     <t>Estudiantes Caseros</t>
   </si>
   <si>
-    <t>Deportivo Maldonado</t>
-  </si>
-  <si>
     <t>Ituano</t>
   </si>
   <si>
     <t>Torque</t>
   </si>
   <si>
+    <t>Gimnasia La Plata</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
+    <t>Cienciano</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Altos</t>
+  </si>
+  <si>
     <t>América RN</t>
   </si>
   <si>
-    <t>Gimnasia La Plata</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
-  </si>
-  <si>
-    <t>Altos</t>
-  </si>
-  <si>
-    <t>Sousa</t>
-  </si>
-  <si>
     <t>Deportivo Madryn</t>
   </si>
   <si>
-    <t>Cienciano</t>
-  </si>
-  <si>
     <t>Guarani</t>
   </si>
   <si>
@@ -335,6 +356,15 @@
   </si>
   <si>
     <t>Vitória Futebol Clube (ES)</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Alianza Atlético</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
   </si>
 </sst>
 </file>
@@ -696,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,43 +847,43 @@
         <v>45110</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>2.65</v>
+        <v>2.08</v>
       </c>
       <c r="H2">
         <v>3.25</v>
       </c>
       <c r="I2">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="J2">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K2">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="L2">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="O2">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="P2">
         <v>1.44</v>
@@ -868,28 +898,28 @@
         <v>1.91</v>
       </c>
       <c r="T2">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U2">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="V2">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W2">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="X2">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="Y2">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="Z2">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="AA2">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -907,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -924,43 +954,43 @@
         <v>45110</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H3">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="J3">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K3">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="O3">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -975,28 +1005,28 @@
         <v>1.91</v>
       </c>
       <c r="T3">
+        <v>1.37</v>
+      </c>
+      <c r="U3">
+        <v>1.28</v>
+      </c>
+      <c r="V3">
         <v>1.4</v>
       </c>
-      <c r="U3">
-        <v>1.24</v>
-      </c>
-      <c r="V3">
-        <v>1.41</v>
-      </c>
       <c r="W3">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="X3">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="Y3">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="Z3">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="AA3">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1014,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1031,25 +1061,25 @@
         <v>45110</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>1.88</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>3.45</v>
       </c>
       <c r="I4">
-        <v>1.24</v>
+        <v>3.6</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1064,22 +1094,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="O4">
-        <v>2.9</v>
+        <v>1.92</v>
       </c>
       <c r="P4">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Q4">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S4">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1091,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="X4">
-        <v>1.71</v>
+        <v>0.83</v>
       </c>
       <c r="Y4">
-        <v>1.18</v>
+        <v>1.68</v>
       </c>
       <c r="Z4">
-        <v>1.69</v>
+        <v>1.17</v>
       </c>
       <c r="AA4">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1138,25 +1168,25 @@
         <v>45110</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G5">
-        <v>2.36</v>
+        <v>1.89</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I5">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1171,22 +1201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>2.01</v>
+        <v>1.7</v>
       </c>
       <c r="P5">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R5">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1198,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="X5">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="Z5">
-        <v>1.17</v>
+        <v>1.74</v>
       </c>
       <c r="AA5">
-        <v>2.85</v>
+        <v>3.49</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1245,25 +1275,25 @@
         <v>45110</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G6">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="H6">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>3.35</v>
+        <v>2.72</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1278,23 +1308,23 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>1.76</v>
+      </c>
+      <c r="O6">
+        <v>1.88</v>
+      </c>
+      <c r="P6">
+        <v>1.36</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1.7</v>
+      </c>
+      <c r="S6">
         <v>2.05</v>
       </c>
-      <c r="O6">
-        <v>1.85</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6">
-        <v>2.75</v>
-      </c>
-      <c r="R6">
-        <v>1.75</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
       <c r="T6">
         <v>0</v>
       </c>
@@ -1305,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>2.14</v>
+        <v>2.6</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2.71</v>
       </c>
       <c r="Y6">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="Z6">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="AA6">
-        <v>3.49</v>
+        <v>3.41</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1352,25 +1382,25 @@
         <v>45110</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G7">
-        <v>2.47</v>
+        <v>9.4</v>
       </c>
       <c r="H7">
-        <v>3.55</v>
+        <v>6.35</v>
       </c>
       <c r="I7">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1385,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="O7">
+        <v>2.66</v>
+      </c>
+      <c r="P7">
+        <v>1.2</v>
+      </c>
+      <c r="Q7">
+        <v>4.33</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="P7">
-        <v>1.36</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>1.7</v>
-      </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1412,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="X7">
-        <v>2.71</v>
+        <v>1.71</v>
       </c>
       <c r="Y7">
-        <v>1.93</v>
+        <v>1.18</v>
       </c>
       <c r="Z7">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="AA7">
-        <v>3.41</v>
+        <v>2.87</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1459,25 +1489,25 @@
         <v>45110</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="H8">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I8">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1492,10 +1522,10 @@
         <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="O8">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="P8">
         <v>1.38</v>
@@ -1566,195 +1596,195 @@
         <v>45110</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G9">
-        <v>2.55</v>
+        <v>2.07</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L9">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N9">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="P9">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="Q9">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="R9">
+        <v>1.7</v>
+      </c>
+      <c r="S9">
+        <v>2.05</v>
+      </c>
+      <c r="T9">
+        <v>1.35</v>
+      </c>
+      <c r="U9">
+        <v>1.3</v>
+      </c>
+      <c r="V9">
+        <v>1.74</v>
+      </c>
+      <c r="W9">
         <v>2</v>
       </c>
-      <c r="S9">
-        <v>1.75</v>
-      </c>
-      <c r="T9">
-        <v>1.43</v>
-      </c>
-      <c r="U9">
-        <v>1.35</v>
-      </c>
-      <c r="V9">
-        <v>1.46</v>
-      </c>
-      <c r="W9">
-        <v>1.33</v>
-      </c>
       <c r="X9">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="Y9">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="Z9">
-        <v>0.96</v>
+        <v>1.22</v>
       </c>
       <c r="AA9">
-        <v>2.43</v>
+        <v>2.76</v>
       </c>
       <c r="AB9">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45110</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G10">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="J10">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="M10">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>1.64</v>
+        <v>2.36</v>
       </c>
       <c r="O10">
-        <v>2.25</v>
+        <v>1.52</v>
       </c>
       <c r="P10">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="Q10">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="R10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T10">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="U10">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="V10">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="W10">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="X10">
-        <v>0.43</v>
+        <v>1.33</v>
       </c>
       <c r="Y10">
-        <v>2.11</v>
+        <v>1.47</v>
       </c>
       <c r="Z10">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AA10">
-        <v>3.53</v>
+        <v>2.43</v>
       </c>
       <c r="AB10">
-        <v>1.38</v>
+        <v>1.97</v>
       </c>
       <c r="AC10">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD10">
-        <v>3.8</v>
+        <v>2.18</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1780,103 +1810,103 @@
         <v>45110</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G11">
+        <v>1.63</v>
+      </c>
+      <c r="H11">
+        <v>4.1</v>
+      </c>
+      <c r="I11">
+        <v>4.6</v>
+      </c>
+      <c r="J11">
+        <v>1.03</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>1.2</v>
+      </c>
+      <c r="M11">
+        <v>4.5</v>
+      </c>
+      <c r="N11">
+        <v>1.58</v>
+      </c>
+      <c r="O11">
+        <v>2.23</v>
+      </c>
+      <c r="P11">
+        <v>1.29</v>
+      </c>
+      <c r="Q11">
+        <v>3.5</v>
+      </c>
+      <c r="R11">
+        <v>1.67</v>
+      </c>
+      <c r="S11">
         <v>2.1</v>
       </c>
-      <c r="H11">
-        <v>3.55</v>
-      </c>
-      <c r="I11">
-        <v>3.25</v>
-      </c>
-      <c r="J11">
-        <v>1.04</v>
-      </c>
-      <c r="K11">
-        <v>14</v>
-      </c>
-      <c r="L11">
-        <v>1.24</v>
-      </c>
-      <c r="M11">
-        <v>4.2</v>
-      </c>
-      <c r="N11">
-        <v>1.78</v>
-      </c>
-      <c r="O11">
-        <v>2.05</v>
-      </c>
-      <c r="P11">
-        <v>1.36</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-      <c r="R11">
-        <v>1.7</v>
-      </c>
-      <c r="S11">
-        <v>2.05</v>
-      </c>
       <c r="T11">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="U11">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V11">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="X11">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="Y11">
-        <v>1.54</v>
+        <v>2.11</v>
       </c>
       <c r="Z11">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AA11">
-        <v>2.76</v>
+        <v>3.53</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1887,79 +1917,79 @@
         <v>45110</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I12">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L12">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="M12">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>2.43</v>
+        <v>1.68</v>
       </c>
       <c r="O12">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="P12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Q12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W12">
-        <v>1.78</v>
+        <v>2.44</v>
       </c>
       <c r="X12">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="Y12">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="Z12">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="AA12">
-        <v>2.87</v>
+        <v>3.52</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -1994,79 +2024,79 @@
         <v>45110</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G13">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="H13">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="I13">
-        <v>4.2</v>
+        <v>2.97</v>
       </c>
       <c r="J13">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="N13">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="O13">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="P13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="T13">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="X13">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Y13">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="Z13">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="AA13">
-        <v>3.52</v>
+        <v>2.87</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2101,25 +2131,25 @@
         <v>45110</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G14">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J14">
         <v>1.07</v>
@@ -2134,10 +2164,10 @@
         <v>2.9</v>
       </c>
       <c r="N14">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="O14">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P14">
         <v>1.48</v>
@@ -2202,31 +2232,31 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2">
         <v>45110</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G15">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="H15">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I15">
-        <v>5.6</v>
+        <v>4.15</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2241,10 +2271,10 @@
         <v>3.37</v>
       </c>
       <c r="N15">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="O15">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P15">
         <v>1.38</v>
@@ -2315,103 +2345,103 @@
         <v>45110</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G16">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L16">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M16">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="N16">
+        <v>2.7</v>
+      </c>
+      <c r="O16">
+        <v>1.44</v>
+      </c>
+      <c r="P16">
+        <v>1.62</v>
+      </c>
+      <c r="Q16">
+        <v>2.2</v>
+      </c>
+      <c r="R16">
         <v>2.38</v>
       </c>
-      <c r="O16">
-        <v>1.45</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
       <c r="S16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="Y16">
-        <v>1.85</v>
+        <v>1.15</v>
       </c>
       <c r="Z16">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="AA16">
-        <v>3.44</v>
+        <v>2.47</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2422,103 +2452,103 @@
         <v>45110</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G17">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H17">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="J17">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K17">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L17">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M17">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="N17">
-        <v>2.7</v>
+        <v>2.34</v>
       </c>
       <c r="O17">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="P17">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="Q17">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R17">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="T17">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="U17">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="W17">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="X17">
-        <v>0.73</v>
+        <v>0.17</v>
       </c>
       <c r="Y17">
-        <v>1.15</v>
+        <v>1.72</v>
       </c>
       <c r="Z17">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AA17">
-        <v>2.47</v>
+        <v>2.98</v>
       </c>
       <c r="AB17">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AC17">
         <v>8.5</v>
       </c>
       <c r="AD17">
-        <v>3.16</v>
+        <v>2.88</v>
       </c>
       <c r="AE17">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AF17">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AG17">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AH17">
+        <v>1.98</v>
+      </c>
+      <c r="AI17">
         <v>2.5</v>
-      </c>
-      <c r="AI17">
-        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2529,88 +2559,88 @@
         <v>45110</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="H18">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N18">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="O18">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="S18">
+        <v>2.05</v>
+      </c>
+      <c r="T18">
+        <v>1.23</v>
+      </c>
+      <c r="U18">
+        <v>1.25</v>
+      </c>
+      <c r="V18">
+        <v>1.85</v>
+      </c>
+      <c r="W18">
+        <v>2.22</v>
+      </c>
+      <c r="X18">
+        <v>0.67</v>
+      </c>
+      <c r="Y18">
         <v>1.75</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>1.4</v>
-      </c>
-      <c r="X18">
-        <v>0.17</v>
-      </c>
-      <c r="Y18">
-        <v>1.72</v>
-      </c>
       <c r="Z18">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AA18">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="AB18">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2619,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2630,85 +2660,85 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
         <v>45110</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G19">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="H19">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="J19">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="P19">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X19">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Y19">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z19">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AA19">
-        <v>3.17</v>
+        <v>4.14</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2737,85 +2767,85 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
         <v>45110</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y20">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Z20">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AA20">
-        <v>4.14</v>
+        <v>3.17</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2844,31 +2874,31 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
         <v>45110</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G21">
-        <v>2.34</v>
+        <v>1.66</v>
       </c>
       <c r="H21">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="I21">
-        <v>3.15</v>
+        <v>5.15</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2877,28 +2907,28 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M21">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N21">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="O21">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P21">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2910,19 +2940,19 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Z21">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="AA21">
-        <v>3.03</v>
+        <v>3.44</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2951,85 +2981,85 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
         <v>45110</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G22">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="I22">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="M22">
-        <v>3.7</v>
+        <v>2.32</v>
       </c>
       <c r="N22">
-        <v>1.79</v>
+        <v>2.62</v>
       </c>
       <c r="O22">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="P22">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="Q22">
-        <v>2.95</v>
+        <v>2.25</v>
       </c>
       <c r="R22">
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="T22">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>2.22</v>
+        <v>1.33</v>
       </c>
       <c r="X22">
-        <v>0.67</v>
+        <v>1.22</v>
       </c>
       <c r="Y22">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z22">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="AA22">
-        <v>2.92</v>
+        <v>3.03</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3064,25 +3094,25 @@
         <v>45110</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G23">
         <v>2.37</v>
       </c>
       <c r="H23">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I23">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="J23">
         <v>1.08</v>
@@ -3097,10 +3127,10 @@
         <v>2.64</v>
       </c>
       <c r="N23">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="O23">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P23">
         <v>1.44</v>
@@ -3171,25 +3201,25 @@
         <v>45110</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G24">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I24">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3204,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O24">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3278,25 +3308,25 @@
         <v>45110</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3311,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3374,6 +3404,327 @@
         <v>0</v>
       </c>
       <c r="AI25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26">
+        <v>2.19</v>
+      </c>
+      <c r="H26">
+        <v>3.15</v>
+      </c>
+      <c r="I26">
+        <v>2.97</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1.5</v>
+      </c>
+      <c r="M26">
+        <v>2.35</v>
+      </c>
+      <c r="N26">
+        <v>2.18</v>
+      </c>
+      <c r="O26">
+        <v>1.54</v>
+      </c>
+      <c r="P26">
+        <v>1.53</v>
+      </c>
+      <c r="Q26">
+        <v>2.38</v>
+      </c>
+      <c r="R26">
+        <v>2.1</v>
+      </c>
+      <c r="S26">
+        <v>1.67</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1.1</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.28</v>
+      </c>
+      <c r="Z26">
+        <v>1.06</v>
+      </c>
+      <c r="AA26">
+        <v>2.34</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27">
+        <v>1.26</v>
+      </c>
+      <c r="H27">
+        <v>5.1</v>
+      </c>
+      <c r="I27">
+        <v>9.15</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>1.73</v>
+      </c>
+      <c r="O27">
+        <v>1.92</v>
+      </c>
+      <c r="P27">
+        <v>1.33</v>
+      </c>
+      <c r="Q27">
+        <v>3.25</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>1.62</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>2.67</v>
+      </c>
+      <c r="X27">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y27">
+        <v>1.87</v>
+      </c>
+      <c r="Z27">
+        <v>1.41</v>
+      </c>
+      <c r="AA27">
+        <v>3.28</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>3.27</v>
+      </c>
+      <c r="I28">
+        <v>3.5</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>1.72</v>
+      </c>
+      <c r="P28">
+        <v>1.4</v>
+      </c>
+      <c r="Q28">
+        <v>2.75</v>
+      </c>
+      <c r="R28">
+        <v>1.8</v>
+      </c>
+      <c r="S28">
+        <v>1.95</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-07-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -136,30 +136,30 @@
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
+    <t>Argentina Prim B Nacional</t>
+  </si>
+  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Argentina Prim B Nacional</t>
-  </si>
-  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
+    <t>Brazil Serie A</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie A</t>
+    <t>Brazil Serie D</t>
   </si>
   <si>
     <t>Peru Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
@@ -205,24 +205,24 @@
     <t>23:00:00</t>
   </si>
   <si>
+    <t>Cheongju</t>
+  </si>
+  <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
-    <t>Cheongju</t>
-  </si>
-  <si>
     <t>Changchun Yatai</t>
   </si>
   <si>
     <t>Chengdu Better City FC</t>
   </si>
   <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
     <t>Shandong Luneng</t>
   </si>
   <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
     <t>Huachipato</t>
   </si>
   <si>
@@ -235,39 +235,39 @@
     <t>Elfsborg</t>
   </si>
   <si>
+    <t>Deportivo Riestra</t>
+  </si>
+  <si>
     <t>Liverpool FC Montevideo</t>
   </si>
   <si>
-    <t>Deportivo Riestra</t>
-  </si>
-  <si>
     <t>Mirassol</t>
   </si>
   <si>
     <t>Peñarol</t>
   </si>
   <si>
+    <t>Náutico</t>
+  </si>
+  <si>
+    <t>EC São José</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
     <t>Newell's Old Boys</t>
   </si>
   <si>
-    <t>Goiás</t>
+    <t>Campinense</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
   </si>
   <si>
     <t>César Vallejo</t>
   </si>
   <si>
-    <t>Campinense</t>
-  </si>
-  <si>
-    <t>Náutico</t>
-  </si>
-  <si>
-    <t>EC São José</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
@@ -286,24 +286,24 @@
     <t>León</t>
   </si>
   <si>
+    <t>Seongnam</t>
+  </si>
+  <si>
     <t>Seoul E-Land</t>
   </si>
   <si>
-    <t>Seongnam</t>
-  </si>
-  <si>
     <t>Henan Jianye</t>
   </si>
   <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
     <t>Shanghai SIPG</t>
   </si>
   <si>
-    <t>Wuhan Three Towns</t>
-  </si>
-  <si>
     <t>Magallanes</t>
   </si>
   <si>
@@ -316,37 +316,37 @@
     <t>Hammarby</t>
   </si>
   <si>
+    <t>Estudiantes Caseros</t>
+  </si>
+  <si>
     <t>Deportivo Maldonado</t>
   </si>
   <si>
-    <t>Estudiantes Caseros</t>
-  </si>
-  <si>
     <t>Ituano</t>
   </si>
   <si>
     <t>Torque</t>
   </si>
   <si>
+    <t>Altos</t>
+  </si>
+  <si>
+    <t>América RN</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
     <t>Gimnasia La Plata</t>
   </si>
   <si>
-    <t>Coritiba</t>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Deportivo Madryn</t>
   </si>
   <si>
     <t>Cienciano</t>
-  </si>
-  <si>
-    <t>Sousa</t>
-  </si>
-  <si>
-    <t>Altos</t>
-  </si>
-  <si>
-    <t>América RN</t>
-  </si>
-  <si>
-    <t>Deportivo Madryn</t>
   </si>
   <si>
     <t>Guarani</t>
@@ -859,31 +859,31 @@
         <v>90</v>
       </c>
       <c r="G2">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="J2">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K2">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="L2">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N2">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="O2">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="P2">
         <v>1.44</v>
@@ -898,28 +898,28 @@
         <v>1.91</v>
       </c>
       <c r="T2">
+        <v>1.37</v>
+      </c>
+      <c r="U2">
+        <v>1.28</v>
+      </c>
+      <c r="V2">
         <v>1.4</v>
       </c>
-      <c r="U2">
-        <v>1.24</v>
-      </c>
-      <c r="V2">
-        <v>1.41</v>
-      </c>
       <c r="W2">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="X2">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="Y2">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="Z2">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="AA2">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -966,31 +966,31 @@
         <v>91</v>
       </c>
       <c r="G3">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K3">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="L3">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="O3">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -1005,28 +1005,28 @@
         <v>1.91</v>
       </c>
       <c r="T3">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U3">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="V3">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W3">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="X3">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="Y3">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="Z3">
-        <v>1.48</v>
+        <v>1.18</v>
       </c>
       <c r="AA3">
-        <v>2.86</v>
+        <v>2.72</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>92</v>
       </c>
       <c r="G4">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="H4">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="P4">
         <v>1.36</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="X4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="Y4">
         <v>1.68</v>
@@ -1180,13 +1180,13 @@
         <v>93</v>
       </c>
       <c r="G5">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="H5">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>1.95</v>
       </c>
       <c r="O5">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="Y5">
         <v>1.75</v>
@@ -1287,13 +1287,13 @@
         <v>94</v>
       </c>
       <c r="G6">
-        <v>2.33</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>2.72</v>
+        <v>1.07</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1308,46 +1308,46 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="O6">
+        <v>2.9</v>
+      </c>
+      <c r="P6">
+        <v>1.2</v>
+      </c>
+      <c r="Q6">
+        <v>4.33</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1.75</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1.11</v>
+      </c>
+      <c r="X6">
         <v>1.88</v>
       </c>
-      <c r="P6">
-        <v>1.36</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>1.7</v>
-      </c>
-      <c r="S6">
-        <v>2.05</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>2.6</v>
-      </c>
-      <c r="X6">
-        <v>2.71</v>
-      </c>
       <c r="Y6">
-        <v>1.93</v>
+        <v>1.18</v>
       </c>
       <c r="Z6">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="AA6">
-        <v>3.41</v>
+        <v>2.87</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>95</v>
       </c>
       <c r="G7">
-        <v>9.4</v>
+        <v>2.45</v>
       </c>
       <c r="H7">
-        <v>6.35</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="O7">
-        <v>2.66</v>
+        <v>1.8</v>
       </c>
       <c r="P7">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Q7">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S7">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1442,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>1.25</v>
+        <v>2.33</v>
       </c>
       <c r="X7">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
-        <v>1.18</v>
+        <v>1.93</v>
       </c>
       <c r="Z7">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="AA7">
-        <v>2.87</v>
+        <v>3.41</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1501,13 +1501,13 @@
         <v>96</v>
       </c>
       <c r="G8">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="H8">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I8">
-        <v>4.45</v>
+        <v>3.9</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1522,10 +1522,10 @@
         <v>3.5</v>
       </c>
       <c r="N8">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="P8">
         <v>1.38</v>
@@ -1608,13 +1608,13 @@
         <v>97</v>
       </c>
       <c r="G9">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H9">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1629,10 +1629,10 @@
         <v>4.2</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O9">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="P9">
         <v>1.36</v>
@@ -1715,13 +1715,13 @@
         <v>98</v>
       </c>
       <c r="G10">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H10">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J10">
         <v>1.09</v>
@@ -1736,10 +1736,10 @@
         <v>2.7</v>
       </c>
       <c r="N10">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="O10">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="P10">
         <v>1.53</v>
@@ -1822,13 +1822,13 @@
         <v>99</v>
       </c>
       <c r="G11">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H11">
         <v>4.1</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>1.03</v>
@@ -1843,10 +1843,10 @@
         <v>4.5</v>
       </c>
       <c r="N11">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O11">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="P11">
         <v>1.29</v>
@@ -1920,7 +1920,7 @@
         <v>54</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
@@ -1929,67 +1929,67 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <v>1.86</v>
+        <v>2.2</v>
       </c>
       <c r="H12">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I12">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N12">
-        <v>1.68</v>
+        <v>2.15</v>
       </c>
       <c r="O12">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="P12">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="T12">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="X12">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Y12">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="Z12">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="AA12">
-        <v>3.52</v>
+        <v>2.87</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>54</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
@@ -2036,67 +2036,67 @@
         <v>101</v>
       </c>
       <c r="G13">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="H13">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="I13">
-        <v>2.97</v>
+        <v>4.1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L13">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="M13">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="O13">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="P13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="Q13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S13">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W13">
-        <v>1.78</v>
+        <v>2.44</v>
       </c>
       <c r="X13">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="Y13">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="Z13">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="AA13">
-        <v>2.87</v>
+        <v>3.52</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>102</v>
       </c>
       <c r="G14">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I14">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J14">
         <v>1.07</v>
@@ -2164,10 +2164,10 @@
         <v>2.9</v>
       </c>
       <c r="N14">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="O14">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P14">
         <v>1.48</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>45110</v>
@@ -2250,13 +2250,13 @@
         <v>103</v>
       </c>
       <c r="G15">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="H15">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I15">
-        <v>4.15</v>
+        <v>5.6</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2271,10 +2271,10 @@
         <v>3.37</v>
       </c>
       <c r="N15">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="O15">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P15">
         <v>1.38</v>
@@ -2348,7 +2348,7 @@
         <v>57</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
@@ -2357,96 +2357,96 @@
         <v>104</v>
       </c>
       <c r="G16">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="H16">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I16">
-        <v>4.75</v>
+        <v>5.6</v>
       </c>
       <c r="J16">
         <v>1.11</v>
       </c>
       <c r="K16">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="L16">
+        <v>1.55</v>
+      </c>
+      <c r="M16">
+        <v>2.3</v>
+      </c>
+      <c r="N16">
+        <v>2.15</v>
+      </c>
+      <c r="O16">
+        <v>1.65</v>
+      </c>
+      <c r="P16">
+        <v>1.01</v>
+      </c>
+      <c r="Q16">
         <v>1.53</v>
       </c>
-      <c r="M16">
-        <v>2.35</v>
-      </c>
-      <c r="N16">
-        <v>2.7</v>
-      </c>
-      <c r="O16">
-        <v>1.44</v>
-      </c>
-      <c r="P16">
-        <v>1.62</v>
-      </c>
-      <c r="Q16">
-        <v>2.2</v>
-      </c>
       <c r="R16">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="S16">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="T16">
         <v>1.1</v>
       </c>
       <c r="U16">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W16">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="Y16">
-        <v>1.15</v>
+        <v>1.75</v>
       </c>
       <c r="Z16">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AA16">
-        <v>2.47</v>
+        <v>3.17</v>
       </c>
       <c r="AB16">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>45110</v>
@@ -2455,7 +2455,7 @@
         <v>57</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>78</v>
@@ -2464,96 +2464,96 @@
         <v>105</v>
       </c>
       <c r="G17">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H17">
         <v>3.2</v>
       </c>
       <c r="I17">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M17">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="N17">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P17">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>2</v>
       </c>
-      <c r="S17">
-        <v>1.75</v>
-      </c>
-      <c r="T17">
-        <v>1.25</v>
-      </c>
-      <c r="U17">
-        <v>1.33</v>
-      </c>
-      <c r="V17">
-        <v>1.81</v>
-      </c>
-      <c r="W17">
-        <v>1.4</v>
-      </c>
       <c r="X17">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="Z17">
-        <v>1.26</v>
+        <v>1.59</v>
       </c>
       <c r="AA17">
-        <v>2.98</v>
+        <v>3.44</v>
       </c>
       <c r="AB17">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2">
         <v>45110</v>
@@ -2562,7 +2562,7 @@
         <v>57</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -2571,96 +2571,96 @@
         <v>106</v>
       </c>
       <c r="G18">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K18">
-        <v>12.75</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="M18">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="N18">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="O18">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="P18">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="Q18">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="R18">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="U18">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="W18">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="X18">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="Y18">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z18">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AA18">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
         <v>45110</v>
@@ -2669,7 +2669,7 @@
         <v>57</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>80</v>
@@ -2681,93 +2681,93 @@
         <v>1.91</v>
       </c>
       <c r="H19">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I19">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N19">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="O19">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
+        <v>2.1</v>
+      </c>
+      <c r="X19">
+        <v>0.73</v>
+      </c>
+      <c r="Y19">
+        <v>1.15</v>
+      </c>
+      <c r="Z19">
+        <v>1.32</v>
+      </c>
+      <c r="AA19">
+        <v>2.47</v>
+      </c>
+      <c r="AB19">
+        <v>1.51</v>
+      </c>
+      <c r="AC19">
+        <v>8.5</v>
+      </c>
+      <c r="AD19">
+        <v>3.16</v>
+      </c>
+      <c r="AE19">
+        <v>1.27</v>
+      </c>
+      <c r="AF19">
+        <v>1.5</v>
+      </c>
+      <c r="AG19">
+        <v>1.88</v>
+      </c>
+      <c r="AH19">
         <v>2.5</v>
       </c>
-      <c r="X19">
-        <v>0.6</v>
-      </c>
-      <c r="Y19">
-        <v>2.5</v>
-      </c>
-      <c r="Z19">
-        <v>1.64</v>
-      </c>
-      <c r="AA19">
-        <v>4.14</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
       <c r="AI19">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
         <v>45110</v>
@@ -2785,67 +2785,67 @@
         <v>108</v>
       </c>
       <c r="G20">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="H20">
-        <v>3.2</v>
+        <v>3.32</v>
       </c>
       <c r="I20">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="J20">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.62</v>
+        <v>2.19</v>
       </c>
       <c r="O20">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="P20">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X20">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Y20">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z20">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AA20">
-        <v>3.17</v>
+        <v>4.14</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
         <v>45110</v>
@@ -2883,7 +2883,7 @@
         <v>57</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
@@ -2892,13 +2892,13 @@
         <v>109</v>
       </c>
       <c r="G21">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
       <c r="H21">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I21">
-        <v>5.15</v>
+        <v>3.05</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2907,28 +2907,28 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2940,19 +2940,19 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="Y21">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="Z21">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="AA21">
-        <v>3.44</v>
+        <v>3.03</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
         <v>45110</v>
@@ -2990,7 +2990,7 @@
         <v>57</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>83</v>
@@ -2999,67 +2999,67 @@
         <v>110</v>
       </c>
       <c r="G22">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="H22">
+        <v>3.2</v>
+      </c>
+      <c r="I22">
+        <v>3.4</v>
+      </c>
+      <c r="J22">
+        <v>1.04</v>
+      </c>
+      <c r="K22">
+        <v>12.75</v>
+      </c>
+      <c r="L22">
+        <v>1.24</v>
+      </c>
+      <c r="M22">
+        <v>3.7</v>
+      </c>
+      <c r="N22">
+        <v>1.79</v>
+      </c>
+      <c r="O22">
+        <v>1.98</v>
+      </c>
+      <c r="P22">
+        <v>1.35</v>
+      </c>
+      <c r="Q22">
+        <v>2.95</v>
+      </c>
+      <c r="R22">
+        <v>1.68</v>
+      </c>
+      <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
+        <v>1.23</v>
+      </c>
+      <c r="U22">
+        <v>1.25</v>
+      </c>
+      <c r="V22">
+        <v>1.85</v>
+      </c>
+      <c r="W22">
+        <v>2.22</v>
+      </c>
+      <c r="X22">
+        <v>0.67</v>
+      </c>
+      <c r="Y22">
+        <v>1.75</v>
+      </c>
+      <c r="Z22">
+        <v>1.17</v>
+      </c>
+      <c r="AA22">
         <v>2.92</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>1.54</v>
-      </c>
-      <c r="M22">
-        <v>2.32</v>
-      </c>
-      <c r="N22">
-        <v>2.62</v>
-      </c>
-      <c r="O22">
-        <v>1.37</v>
-      </c>
-      <c r="P22">
-        <v>1.57</v>
-      </c>
-      <c r="Q22">
-        <v>2.25</v>
-      </c>
-      <c r="R22">
-        <v>2.1</v>
-      </c>
-      <c r="S22">
-        <v>1.67</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>1.33</v>
-      </c>
-      <c r="X22">
-        <v>1.22</v>
-      </c>
-      <c r="Y22">
-        <v>1.5</v>
-      </c>
-      <c r="Z22">
-        <v>1.53</v>
-      </c>
-      <c r="AA22">
-        <v>3.03</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3106,13 +3106,13 @@
         <v>111</v>
       </c>
       <c r="G23">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H23">
         <v>3.1</v>
       </c>
       <c r="I23">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="J23">
         <v>1.08</v>
@@ -3127,10 +3127,10 @@
         <v>2.64</v>
       </c>
       <c r="N23">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P23">
         <v>1.44</v>
@@ -3213,13 +3213,13 @@
         <v>112</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H24">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I24">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O24">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="P24">
         <v>1.33</v>
@@ -3320,13 +3320,13 @@
         <v>113</v>
       </c>
       <c r="G25">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H25">
-        <v>3.1</v>
+        <v>3.44</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>4.21</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.91</v>
+        <v>2.11</v>
       </c>
       <c r="O25">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
         <v>45110</v>
@@ -3427,13 +3427,13 @@
         <v>114</v>
       </c>
       <c r="G26">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="H26">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I26">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3442,16 +3442,16 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M26">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="N26">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P26">
         <v>1.53</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
         <v>45110</v>
@@ -3534,13 +3534,13 @@
         <v>115</v>
       </c>
       <c r="G27">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="H27">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="I27">
-        <v>9.15</v>
+        <v>9.6</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O27">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="P27">
         <v>1.33</v>
